--- a/Testcase Shopify API.xlsx
+++ b/Testcase Shopify API.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnhThu\Desktop\shopify\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnhThu\Desktop\shopify\shopify-Product-API-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A9EC4C-526D-4E23-AFFF-9BB6798774E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340C4E60-D4AC-4755-932B-41614AB16EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="3" xr2:uid="{22E03114-7C24-48EA-BA2F-D1998A01655C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{22E03114-7C24-48EA-BA2F-D1998A01655C}"/>
   </bookViews>
   <sheets>
     <sheet name="POST Create a new product" sheetId="2" r:id="rId1"/>
@@ -1820,7 +1820,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1889,20 +1889,35 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1920,12 +1935,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1933,6 +1942,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1943,6 +1958,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1952,106 +1973,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF2F2F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF2F2F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF2F2F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF2F2F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF2F2F"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -2473,8 +2408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF704B0-E427-4C17-83BE-4AB13159689B}">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2525,11 +2460,11 @@
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="255" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
+      <c r="A3" s="31">
         <v>1</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
@@ -2545,9 +2480,9 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="6" t="s">
         <v>183</v>
       </c>
@@ -2564,7 +2499,7 @@
       <c r="A5" s="21">
         <v>2</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="29" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -2588,8 +2523,8 @@
       <c r="A6" s="21">
         <v>3</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="31" t="s">
         <v>186</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -2608,8 +2543,8 @@
       <c r="A7" s="21">
         <v>4</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="26"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="6" t="s">
         <v>12</v>
       </c>
@@ -2626,8 +2561,8 @@
       <c r="A8" s="21">
         <v>5</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="25"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
@@ -2644,10 +2579,10 @@
       <c r="A9" s="21">
         <v>6</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="31" t="s">
         <v>185</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -2660,14 +2595,14 @@
       <c r="G9" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H9" s="27"/>
+      <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>7</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="26"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
@@ -2678,14 +2613,14 @@
       <c r="G10" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H10" s="30"/>
+      <c r="H10" s="35"/>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>8</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="25"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
@@ -2702,10 +2637,10 @@
       <c r="A12" s="22">
         <v>9</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="31" t="s">
         <v>185</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -2718,14 +2653,14 @@
       <c r="G12" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H12" s="27"/>
+      <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>10</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="26"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="6" t="s">
         <v>22</v>
       </c>
@@ -2736,14 +2671,14 @@
       <c r="G13" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H13" s="28"/>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>11</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="26"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="6" t="s">
         <v>23</v>
       </c>
@@ -2760,8 +2695,8 @@
       <c r="A15" s="22">
         <v>12</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="25"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="6" t="s">
         <v>21</v>
       </c>
@@ -2778,7 +2713,7 @@
       <c r="A16" s="21">
         <v>13</v>
       </c>
-      <c r="B16" s="30"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="14" t="s">
         <v>187</v>
       </c>
@@ -2798,10 +2733,10 @@
       <c r="A17" s="21">
         <v>14</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="31" t="s">
         <v>185</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -2814,14 +2749,14 @@
       <c r="G17" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H17" s="27"/>
+      <c r="H17" s="29"/>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>15</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="26"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="6" t="s">
         <v>27</v>
       </c>
@@ -2832,14 +2767,14 @@
       <c r="G18" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H18" s="28"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>16</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="25"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="6" t="s">
         <v>28</v>
       </c>
@@ -2856,7 +2791,7 @@
       <c r="A20" s="21">
         <v>17</v>
       </c>
-      <c r="B20" s="30"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="14" t="s">
         <v>364</v>
       </c>
@@ -2876,10 +2811,10 @@
       <c r="A21" s="21">
         <v>18</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="31" t="s">
         <v>185</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -2892,14 +2827,14 @@
       <c r="G21" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H21" s="27"/>
+      <c r="H21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>19</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="26"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="6" t="s">
         <v>35</v>
       </c>
@@ -2910,14 +2845,14 @@
       <c r="G22" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H22" s="29"/>
+      <c r="H22" s="34"/>
     </row>
     <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <v>20</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="26"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="6" t="s">
         <v>36</v>
       </c>
@@ -2928,14 +2863,14 @@
       <c r="G23" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H23" s="29"/>
+      <c r="H23" s="34"/>
     </row>
     <row r="24" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>21</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="25"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="6" t="s">
         <v>33</v>
       </c>
@@ -2946,13 +2881,13 @@
       <c r="G24" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H24" s="30"/>
+      <c r="H24" s="35"/>
     </row>
     <row r="25" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>22</v>
       </c>
-      <c r="B25" s="29"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="20" t="s">
         <v>189</v>
       </c>
@@ -2966,13 +2901,13 @@
       <c r="G25" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H25" s="27"/>
+      <c r="H25" s="29"/>
     </row>
     <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>23</v>
       </c>
-      <c r="B26" s="30"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="15"/>
       <c r="D26" s="6" t="s">
         <v>32</v>
@@ -2984,16 +2919,16 @@
       <c r="G26" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H26" s="30"/>
+      <c r="H26" s="35"/>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>24</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="31" t="s">
         <v>185</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -3012,8 +2947,8 @@
       <c r="A28" s="21">
         <v>25</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="26"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="6" t="s">
         <v>367</v>
       </c>
@@ -3030,8 +2965,8 @@
       <c r="A29" s="21">
         <v>26</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="26"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="6" t="s">
         <v>42</v>
       </c>
@@ -3048,8 +2983,8 @@
       <c r="A30" s="21">
         <v>27</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="25"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="6" t="s">
         <v>43</v>
       </c>
@@ -3066,10 +3001,10 @@
       <c r="A31" s="21">
         <v>28</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="31" t="s">
         <v>185</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -3088,8 +3023,8 @@
       <c r="A32" s="21">
         <v>29</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="26"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="32"/>
       <c r="D32" s="6" t="s">
         <v>50</v>
       </c>
@@ -3106,8 +3041,8 @@
       <c r="A33" s="21">
         <v>30</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="25"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="6" t="s">
         <v>51</v>
       </c>
@@ -3124,7 +3059,7 @@
       <c r="A34" s="21">
         <v>31</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="29" t="s">
         <v>49</v>
       </c>
       <c r="C34" s="8"/>
@@ -3144,7 +3079,7 @@
       <c r="A35" s="21">
         <v>32</v>
       </c>
-      <c r="B35" s="29"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="9"/>
       <c r="D35" s="6" t="s">
         <v>54</v>
@@ -3162,7 +3097,7 @@
       <c r="A36" s="21">
         <v>33</v>
       </c>
-      <c r="B36" s="30"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="10"/>
       <c r="D36" s="6" t="s">
         <v>56</v>
@@ -3180,7 +3115,7 @@
       <c r="A37" s="21">
         <v>34</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="29" t="s">
         <v>58</v>
       </c>
       <c r="C37" s="8"/>
@@ -3200,7 +3135,7 @@
       <c r="A38" s="21">
         <v>35</v>
       </c>
-      <c r="B38" s="29"/>
+      <c r="B38" s="34"/>
       <c r="C38" s="9"/>
       <c r="D38" s="6" t="s">
         <v>173</v>
@@ -3218,7 +3153,7 @@
       <c r="A39" s="21">
         <v>36</v>
       </c>
-      <c r="B39" s="29"/>
+      <c r="B39" s="34"/>
       <c r="C39" s="9"/>
       <c r="D39" s="6" t="s">
         <v>199</v>
@@ -3236,7 +3171,7 @@
       <c r="A40" s="21">
         <v>37</v>
       </c>
-      <c r="B40" s="29"/>
+      <c r="B40" s="34"/>
       <c r="C40" s="9"/>
       <c r="D40" s="6" t="s">
         <v>62</v>
@@ -3254,7 +3189,7 @@
       <c r="A41" s="21">
         <v>38</v>
       </c>
-      <c r="B41" s="29"/>
+      <c r="B41" s="34"/>
       <c r="C41" s="9"/>
       <c r="D41" s="6" t="s">
         <v>63</v>
@@ -3272,7 +3207,7 @@
       <c r="A42" s="21">
         <v>39</v>
       </c>
-      <c r="B42" s="29"/>
+      <c r="B42" s="34"/>
       <c r="C42" s="9"/>
       <c r="D42" s="6" t="s">
         <v>66</v>
@@ -3290,7 +3225,7 @@
       <c r="A43" s="21">
         <v>40</v>
       </c>
-      <c r="B43" s="29"/>
+      <c r="B43" s="34"/>
       <c r="C43" s="9"/>
       <c r="D43" s="6" t="s">
         <v>67</v>
@@ -3308,7 +3243,7 @@
       <c r="A44" s="21">
         <v>41</v>
       </c>
-      <c r="B44" s="29"/>
+      <c r="B44" s="34"/>
       <c r="C44" s="9"/>
       <c r="D44" s="6" t="s">
         <v>174</v>
@@ -3326,7 +3261,7 @@
       <c r="A45" s="21">
         <v>42</v>
       </c>
-      <c r="B45" s="29"/>
+      <c r="B45" s="34"/>
       <c r="C45" s="9"/>
       <c r="D45" s="6" t="s">
         <v>175</v>
@@ -3344,7 +3279,7 @@
       <c r="A46" s="21">
         <v>43</v>
       </c>
-      <c r="B46" s="30"/>
+      <c r="B46" s="35"/>
       <c r="C46" s="10"/>
       <c r="D46" s="6" t="s">
         <v>368</v>
@@ -3362,7 +3297,7 @@
       <c r="A47" s="21">
         <v>44</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="36" t="s">
         <v>72</v>
       </c>
       <c r="C47" s="11"/>
@@ -3382,7 +3317,7 @@
       <c r="A48" s="21">
         <v>45</v>
       </c>
-      <c r="B48" s="32"/>
+      <c r="B48" s="37"/>
       <c r="C48" s="12"/>
       <c r="D48" s="6" t="s">
         <v>75</v>
@@ -3402,7 +3337,7 @@
       <c r="A49" s="21">
         <v>46</v>
       </c>
-      <c r="B49" s="32"/>
+      <c r="B49" s="37"/>
       <c r="C49" s="12"/>
       <c r="D49" s="6" t="s">
         <v>77</v>
@@ -3420,7 +3355,7 @@
       <c r="A50" s="21">
         <v>47</v>
       </c>
-      <c r="B50" s="32"/>
+      <c r="B50" s="37"/>
       <c r="C50" s="12"/>
       <c r="D50" s="6" t="s">
         <v>151</v>
@@ -3438,7 +3373,7 @@
       <c r="A51" s="21">
         <v>48</v>
       </c>
-      <c r="B51" s="32"/>
+      <c r="B51" s="37"/>
       <c r="C51" s="12"/>
       <c r="D51" s="6" t="s">
         <v>152</v>
@@ -3456,7 +3391,7 @@
       <c r="A52" s="21">
         <v>49</v>
       </c>
-      <c r="B52" s="32"/>
+      <c r="B52" s="37"/>
       <c r="C52" s="12"/>
       <c r="D52" s="6" t="s">
         <v>141</v>
@@ -3476,7 +3411,7 @@
       <c r="A53" s="21">
         <v>50</v>
       </c>
-      <c r="B53" s="32"/>
+      <c r="B53" s="37"/>
       <c r="C53" s="12"/>
       <c r="D53" s="6" t="s">
         <v>143</v>
@@ -3496,7 +3431,7 @@
       <c r="A54" s="21">
         <v>51</v>
       </c>
-      <c r="B54" s="33"/>
+      <c r="B54" s="38"/>
       <c r="C54" s="13"/>
       <c r="D54" s="6" t="s">
         <v>177</v>
@@ -3514,7 +3449,7 @@
       <c r="A55" s="21">
         <v>52</v>
       </c>
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="36" t="s">
         <v>146</v>
       </c>
       <c r="C55" s="8"/>
@@ -3536,7 +3471,7 @@
       <c r="A56" s="21">
         <v>53</v>
       </c>
-      <c r="B56" s="32"/>
+      <c r="B56" s="37"/>
       <c r="C56" s="9"/>
       <c r="D56" s="6" t="s">
         <v>153</v>
@@ -3554,7 +3489,7 @@
       <c r="A57" s="21">
         <v>54</v>
       </c>
-      <c r="B57" s="32"/>
+      <c r="B57" s="37"/>
       <c r="C57" s="9"/>
       <c r="D57" s="6" t="s">
         <v>149</v>
@@ -3572,7 +3507,7 @@
       <c r="A58" s="21">
         <v>55</v>
       </c>
-      <c r="B58" s="32"/>
+      <c r="B58" s="37"/>
       <c r="C58" s="9"/>
       <c r="D58" s="6" t="s">
         <v>156</v>
@@ -3590,7 +3525,7 @@
       <c r="A59" s="21">
         <v>56</v>
       </c>
-      <c r="B59" s="32"/>
+      <c r="B59" s="37"/>
       <c r="C59" s="9"/>
       <c r="D59" s="6" t="s">
         <v>157</v>
@@ -3610,7 +3545,7 @@
       <c r="A60" s="21">
         <v>57</v>
       </c>
-      <c r="B60" s="32"/>
+      <c r="B60" s="37"/>
       <c r="C60" s="9"/>
       <c r="D60" s="6" t="s">
         <v>159</v>
@@ -3630,7 +3565,7 @@
       <c r="A61" s="21">
         <v>58</v>
       </c>
-      <c r="B61" s="32"/>
+      <c r="B61" s="37"/>
       <c r="C61" s="9"/>
       <c r="D61" s="6" t="s">
         <v>163</v>
@@ -3650,7 +3585,7 @@
       <c r="A62" s="21">
         <v>59</v>
       </c>
-      <c r="B62" s="32"/>
+      <c r="B62" s="37"/>
       <c r="C62" s="9"/>
       <c r="D62" s="6" t="s">
         <v>166</v>
@@ -3670,7 +3605,7 @@
       <c r="A63" s="21">
         <v>60</v>
       </c>
-      <c r="B63" s="32"/>
+      <c r="B63" s="37"/>
       <c r="C63" s="9"/>
       <c r="D63" s="6" t="s">
         <v>171</v>
@@ -3690,7 +3625,7 @@
       <c r="A64" s="21">
         <v>61</v>
       </c>
-      <c r="B64" s="33"/>
+      <c r="B64" s="38"/>
       <c r="C64" s="10"/>
       <c r="D64" s="6" t="s">
         <v>170</v>
@@ -3726,7 +3661,7 @@
       <c r="A66" s="21">
         <v>63</v>
       </c>
-      <c r="B66" s="27" t="s">
+      <c r="B66" s="29" t="s">
         <v>71</v>
       </c>
       <c r="C66" s="8"/>
@@ -3744,7 +3679,7 @@
       <c r="A67" s="21">
         <v>64</v>
       </c>
-      <c r="B67" s="29"/>
+      <c r="B67" s="34"/>
       <c r="C67" s="9"/>
       <c r="D67" s="6" t="s">
         <v>88</v>
@@ -3760,7 +3695,7 @@
       <c r="A68" s="21">
         <v>65</v>
       </c>
-      <c r="B68" s="29"/>
+      <c r="B68" s="34"/>
       <c r="C68" s="9"/>
       <c r="D68" s="6" t="s">
         <v>90</v>
@@ -3776,7 +3711,7 @@
       <c r="A69" s="21">
         <v>66</v>
       </c>
-      <c r="B69" s="29"/>
+      <c r="B69" s="34"/>
       <c r="C69" s="9"/>
       <c r="D69" s="6" t="s">
         <v>87</v>
@@ -3792,7 +3727,7 @@
       <c r="A70" s="21">
         <v>67</v>
       </c>
-      <c r="B70" s="30"/>
+      <c r="B70" s="35"/>
       <c r="C70" s="10"/>
       <c r="D70" s="6" t="s">
         <v>89</v>
@@ -3808,7 +3743,7 @@
       <c r="A71" s="21">
         <v>68</v>
       </c>
-      <c r="B71" s="27" t="s">
+      <c r="B71" s="29" t="s">
         <v>92</v>
       </c>
       <c r="C71" s="8"/>
@@ -3826,7 +3761,7 @@
       <c r="A72" s="21">
         <v>69</v>
       </c>
-      <c r="B72" s="29"/>
+      <c r="B72" s="34"/>
       <c r="C72" s="9"/>
       <c r="D72" s="6" t="s">
         <v>83</v>
@@ -3842,7 +3777,7 @@
       <c r="A73" s="21">
         <v>70</v>
       </c>
-      <c r="B73" s="29"/>
+      <c r="B73" s="34"/>
       <c r="C73" s="9"/>
       <c r="D73" s="6" t="s">
         <v>110</v>
@@ -3858,8 +3793,8 @@
       <c r="A74" s="21">
         <v>71</v>
       </c>
-      <c r="B74" s="29"/>
-      <c r="C74" s="26"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="32"/>
       <c r="D74" s="6" t="s">
         <v>84</v>
       </c>
@@ -3874,8 +3809,8 @@
       <c r="A75" s="21">
         <v>72</v>
       </c>
-      <c r="B75" s="30"/>
-      <c r="C75" s="25"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="33"/>
       <c r="D75" s="6" t="s">
         <v>361</v>
       </c>
@@ -3890,7 +3825,7 @@
       <c r="A76" s="21">
         <v>73</v>
       </c>
-      <c r="B76" s="27" t="s">
+      <c r="B76" s="29" t="s">
         <v>93</v>
       </c>
       <c r="C76" s="8"/>
@@ -3908,7 +3843,7 @@
       <c r="A77" s="21">
         <v>74</v>
       </c>
-      <c r="B77" s="29"/>
+      <c r="B77" s="34"/>
       <c r="C77" s="9"/>
       <c r="D77" s="6" t="s">
         <v>88</v>
@@ -3924,7 +3859,7 @@
       <c r="A78" s="21">
         <v>75</v>
       </c>
-      <c r="B78" s="29"/>
+      <c r="B78" s="34"/>
       <c r="C78" s="9"/>
       <c r="D78" s="6" t="s">
         <v>90</v>
@@ -3940,7 +3875,7 @@
       <c r="A79" s="21">
         <v>76</v>
       </c>
-      <c r="B79" s="29"/>
+      <c r="B79" s="34"/>
       <c r="C79" s="9"/>
       <c r="D79" s="6" t="s">
         <v>134</v>
@@ -3956,7 +3891,7 @@
       <c r="A80" s="21">
         <v>77</v>
       </c>
-      <c r="B80" s="29"/>
+      <c r="B80" s="34"/>
       <c r="C80" s="9"/>
       <c r="D80" s="6" t="s">
         <v>94</v>
@@ -3972,7 +3907,7 @@
       <c r="A81" s="21">
         <v>78</v>
       </c>
-      <c r="B81" s="30"/>
+      <c r="B81" s="35"/>
       <c r="C81" s="10"/>
       <c r="D81" s="6" t="s">
         <v>363</v>
@@ -3988,7 +3923,7 @@
       <c r="A82" s="21">
         <v>79</v>
       </c>
-      <c r="B82" s="27" t="s">
+      <c r="B82" s="29" t="s">
         <v>95</v>
       </c>
       <c r="C82" s="8"/>
@@ -4006,7 +3941,7 @@
       <c r="A83" s="21">
         <v>80</v>
       </c>
-      <c r="B83" s="29"/>
+      <c r="B83" s="34"/>
       <c r="C83" s="9"/>
       <c r="D83" s="6" t="s">
         <v>96</v>
@@ -4022,7 +3957,7 @@
       <c r="A84" s="21">
         <v>81</v>
       </c>
-      <c r="B84" s="29"/>
+      <c r="B84" s="34"/>
       <c r="C84" s="9"/>
       <c r="D84" s="6" t="s">
         <v>97</v>
@@ -4038,7 +3973,7 @@
       <c r="A85" s="21">
         <v>82</v>
       </c>
-      <c r="B85" s="30"/>
+      <c r="B85" s="35"/>
       <c r="C85" s="10"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
@@ -4050,7 +3985,7 @@
       <c r="A86" s="21">
         <v>83</v>
       </c>
-      <c r="B86" s="27" t="s">
+      <c r="B86" s="29" t="s">
         <v>99</v>
       </c>
       <c r="C86" s="8"/>
@@ -4068,7 +4003,7 @@
       <c r="A87" s="21">
         <v>84</v>
       </c>
-      <c r="B87" s="29"/>
+      <c r="B87" s="34"/>
       <c r="C87" s="9"/>
       <c r="D87" s="7" t="s">
         <v>83</v>
@@ -4084,7 +4019,7 @@
       <c r="A88" s="21">
         <v>85</v>
       </c>
-      <c r="B88" s="30"/>
+      <c r="B88" s="35"/>
       <c r="C88" s="10"/>
       <c r="D88" s="7" t="s">
         <v>101</v>
@@ -4100,7 +4035,7 @@
       <c r="A89" s="21">
         <v>86</v>
       </c>
-      <c r="B89" s="27" t="s">
+      <c r="B89" s="29" t="s">
         <v>104</v>
       </c>
       <c r="C89" s="8"/>
@@ -4118,7 +4053,7 @@
       <c r="A90" s="21">
         <v>87</v>
       </c>
-      <c r="B90" s="29"/>
+      <c r="B90" s="34"/>
       <c r="C90" s="9"/>
       <c r="D90" s="7" t="s">
         <v>115</v>
@@ -4134,7 +4069,7 @@
       <c r="A91" s="21">
         <v>88</v>
       </c>
-      <c r="B91" s="29"/>
+      <c r="B91" s="34"/>
       <c r="C91" s="9"/>
       <c r="D91" s="7" t="s">
         <v>116</v>
@@ -4150,7 +4085,7 @@
       <c r="A92" s="21">
         <v>89</v>
       </c>
-      <c r="B92" s="29"/>
+      <c r="B92" s="34"/>
       <c r="C92" s="9"/>
       <c r="D92" s="7" t="s">
         <v>105</v>
@@ -4166,7 +4101,7 @@
       <c r="A93" s="21">
         <v>90</v>
       </c>
-      <c r="B93" s="30"/>
+      <c r="B93" s="35"/>
       <c r="C93" s="10"/>
       <c r="D93" s="7" t="s">
         <v>107</v>
@@ -4182,7 +4117,7 @@
       <c r="A94" s="21">
         <v>91</v>
       </c>
-      <c r="B94" s="27" t="s">
+      <c r="B94" s="29" t="s">
         <v>111</v>
       </c>
       <c r="C94" s="8"/>
@@ -4200,7 +4135,7 @@
       <c r="A95" s="21">
         <v>92</v>
       </c>
-      <c r="B95" s="29"/>
+      <c r="B95" s="34"/>
       <c r="C95" s="9"/>
       <c r="D95" s="7" t="s">
         <v>117</v>
@@ -4216,7 +4151,7 @@
       <c r="A96" s="21">
         <v>93</v>
       </c>
-      <c r="B96" s="29"/>
+      <c r="B96" s="34"/>
       <c r="C96" s="9"/>
       <c r="D96" s="7" t="s">
         <v>112</v>
@@ -4232,7 +4167,7 @@
       <c r="A97" s="21">
         <v>94</v>
       </c>
-      <c r="B97" s="29"/>
+      <c r="B97" s="34"/>
       <c r="C97" s="9"/>
       <c r="D97" s="7" t="s">
         <v>116</v>
@@ -4248,7 +4183,7 @@
       <c r="A98" s="21">
         <v>95</v>
       </c>
-      <c r="B98" s="30"/>
+      <c r="B98" s="35"/>
       <c r="C98" s="10"/>
       <c r="D98" s="7" t="s">
         <v>122</v>
@@ -4264,10 +4199,10 @@
       <c r="A99" s="21">
         <v>96</v>
       </c>
-      <c r="B99" s="27" t="s">
+      <c r="B99" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="C99" s="24" t="s">
+      <c r="C99" s="31" t="s">
         <v>185</v>
       </c>
       <c r="D99" s="7" t="s">
@@ -4284,8 +4219,8 @@
       <c r="A100" s="21">
         <v>97</v>
       </c>
-      <c r="B100" s="29"/>
-      <c r="C100" s="26"/>
+      <c r="B100" s="34"/>
+      <c r="C100" s="32"/>
       <c r="D100" s="7" t="s">
         <v>125</v>
       </c>
@@ -4300,8 +4235,8 @@
       <c r="A101" s="21">
         <v>98</v>
       </c>
-      <c r="B101" s="29"/>
-      <c r="C101" s="26"/>
+      <c r="B101" s="34"/>
+      <c r="C101" s="32"/>
       <c r="D101" s="7" t="s">
         <v>126</v>
       </c>
@@ -4316,8 +4251,8 @@
       <c r="A102" s="21">
         <v>99</v>
       </c>
-      <c r="B102" s="29"/>
-      <c r="C102" s="25"/>
+      <c r="B102" s="34"/>
+      <c r="C102" s="33"/>
       <c r="D102" s="7" t="s">
         <v>131</v>
       </c>
@@ -4332,8 +4267,8 @@
       <c r="A103" s="21">
         <v>100</v>
       </c>
-      <c r="B103" s="29"/>
-      <c r="C103" s="24" t="s">
+      <c r="B103" s="34"/>
+      <c r="C103" s="31" t="s">
         <v>364</v>
       </c>
       <c r="D103" s="7" t="s">
@@ -4350,8 +4285,8 @@
       <c r="A104" s="21">
         <v>101</v>
       </c>
-      <c r="B104" s="29"/>
-      <c r="C104" s="26"/>
+      <c r="B104" s="34"/>
+      <c r="C104" s="32"/>
       <c r="D104" s="7" t="s">
         <v>127</v>
       </c>
@@ -4366,8 +4301,8 @@
       <c r="A105" s="21">
         <v>102</v>
       </c>
-      <c r="B105" s="30"/>
-      <c r="C105" s="25"/>
+      <c r="B105" s="35"/>
+      <c r="C105" s="33"/>
       <c r="D105" s="7" t="s">
         <v>124</v>
       </c>
@@ -4382,7 +4317,7 @@
       <c r="A106" s="21">
         <v>103</v>
       </c>
-      <c r="B106" s="27" t="s">
+      <c r="B106" s="29" t="s">
         <v>176</v>
       </c>
       <c r="C106" s="8"/>
@@ -4400,7 +4335,7 @@
       <c r="A107" s="21">
         <v>104</v>
       </c>
-      <c r="B107" s="29"/>
+      <c r="B107" s="34"/>
       <c r="C107" s="9"/>
       <c r="D107" s="7" t="s">
         <v>138</v>
@@ -4416,7 +4351,7 @@
       <c r="A108" s="21">
         <v>105</v>
       </c>
-      <c r="B108" s="29"/>
+      <c r="B108" s="34"/>
       <c r="C108" s="9"/>
       <c r="D108" s="7" t="s">
         <v>139</v>
@@ -4432,7 +4367,7 @@
       <c r="A109" s="21">
         <v>106</v>
       </c>
-      <c r="B109" s="29"/>
+      <c r="B109" s="34"/>
       <c r="C109" s="9"/>
       <c r="D109" s="7" t="s">
         <v>180</v>
@@ -4448,7 +4383,7 @@
       <c r="A110" s="21">
         <v>107</v>
       </c>
-      <c r="B110" s="30"/>
+      <c r="B110" s="35"/>
       <c r="C110" s="10"/>
       <c r="D110" s="7" t="s">
         <v>179</v>
@@ -4507,23 +4442,11 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="B106:B110"/>
-    <mergeCell ref="B55:B64"/>
-    <mergeCell ref="B66:B70"/>
-    <mergeCell ref="B76:B81"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B89:B93"/>
-    <mergeCell ref="B94:B98"/>
-    <mergeCell ref="B99:B105"/>
-    <mergeCell ref="B71:B75"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C99:C102"/>
     <mergeCell ref="C103:C105"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="B86:B88"/>
@@ -4540,35 +4463,31 @@
     <mergeCell ref="C74:C75"/>
     <mergeCell ref="C27:C30"/>
     <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C99:C102"/>
+    <mergeCell ref="B106:B110"/>
+    <mergeCell ref="B55:B64"/>
+    <mergeCell ref="B66:B70"/>
+    <mergeCell ref="B76:B81"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="B94:B98"/>
+    <mergeCell ref="B99:B105"/>
+    <mergeCell ref="B71:B75"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="H9:H10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G3:G11">
-    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="Fail">
+  <conditionalFormatting sqref="G3:G64">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",G3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",G3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G14">
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",G12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",G12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15:G64">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",G15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",G15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -4585,11 +4504,12 @@
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" style="54"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="42.7109375" customWidth="1"/>
     <col min="4" max="4" width="42.28515625" customWidth="1"/>
@@ -4599,7 +4519,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="52" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -4622,7 +4542,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="53" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="17"/>
@@ -4633,8 +4553,10 @@
       <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="34"/>
+      <c r="A3" s="52">
+        <v>1</v>
+      </c>
+      <c r="B3" s="42"/>
       <c r="C3" s="7" t="s">
         <v>370</v>
       </c>
@@ -4650,8 +4572,10 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" s="16" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="52">
+        <v>2</v>
+      </c>
+      <c r="B4" s="43"/>
       <c r="C4" s="6" t="s">
         <v>183</v>
       </c>
@@ -4665,8 +4589,10 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" s="16" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="37" t="s">
+      <c r="A5" s="52">
+        <v>3</v>
+      </c>
+      <c r="B5" s="40" t="s">
         <v>258</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -4684,8 +4610,10 @@
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="37"/>
+      <c r="A6" s="52">
+        <v>4</v>
+      </c>
+      <c r="B6" s="40"/>
       <c r="C6" s="19" t="s">
         <v>194</v>
       </c>
@@ -4701,8 +4629,10 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="37"/>
+      <c r="A7" s="52">
+        <v>5</v>
+      </c>
+      <c r="B7" s="40"/>
       <c r="C7" s="19" t="s">
         <v>373</v>
       </c>
@@ -4716,8 +4646,10 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="37"/>
+      <c r="A8" s="52">
+        <v>6</v>
+      </c>
+      <c r="B8" s="40"/>
       <c r="C8" s="19" t="s">
         <v>374</v>
       </c>
@@ -4731,8 +4663,10 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="38"/>
+      <c r="A9" s="52">
+        <v>7</v>
+      </c>
+      <c r="B9" s="41"/>
       <c r="C9" s="19" t="s">
         <v>197</v>
       </c>
@@ -4746,8 +4680,10 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="31" t="s">
+      <c r="A10" s="52">
+        <v>8</v>
+      </c>
+      <c r="B10" s="36" t="s">
         <v>225</v>
       </c>
       <c r="C10" s="19" t="s">
@@ -4765,8 +4701,10 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="52">
+        <v>9</v>
+      </c>
+      <c r="B11" s="37"/>
       <c r="C11" s="19" t="s">
         <v>206</v>
       </c>
@@ -4782,8 +4720,10 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="52">
+        <v>10</v>
+      </c>
+      <c r="B12" s="37"/>
       <c r="C12" s="19" t="s">
         <v>203</v>
       </c>
@@ -4799,8 +4739,10 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="52">
+        <v>11</v>
+      </c>
+      <c r="B13" s="37"/>
       <c r="C13" s="19" t="s">
         <v>210</v>
       </c>
@@ -4816,8 +4758,10 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="52">
+        <v>12</v>
+      </c>
+      <c r="B14" s="37"/>
       <c r="C14" s="19" t="s">
         <v>209</v>
       </c>
@@ -4831,8 +4775,10 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="33"/>
+      <c r="A15" s="52">
+        <v>13</v>
+      </c>
+      <c r="B15" s="38"/>
       <c r="C15" s="19" t="s">
         <v>208</v>
       </c>
@@ -4846,8 +4792,10 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="52">
+        <v>14</v>
+      </c>
+      <c r="B16" s="29" t="s">
         <v>212</v>
       </c>
       <c r="C16" s="19" t="s">
@@ -4865,8 +4813,10 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="29"/>
+      <c r="A17" s="52">
+        <v>15</v>
+      </c>
+      <c r="B17" s="34"/>
       <c r="C17" s="19" t="s">
         <v>226</v>
       </c>
@@ -4882,8 +4832,10 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="29"/>
+      <c r="A18" s="52">
+        <v>16</v>
+      </c>
+      <c r="B18" s="34"/>
       <c r="C18" s="19" t="s">
         <v>214</v>
       </c>
@@ -4899,8 +4851,10 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="29"/>
+      <c r="A19" s="52">
+        <v>17</v>
+      </c>
+      <c r="B19" s="34"/>
       <c r="C19" s="19" t="s">
         <v>215</v>
       </c>
@@ -4914,8 +4868,10 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="29"/>
+      <c r="A20" s="52">
+        <v>18</v>
+      </c>
+      <c r="B20" s="34"/>
       <c r="C20" s="19" t="s">
         <v>216</v>
       </c>
@@ -4929,8 +4885,10 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="30"/>
+      <c r="A21" s="52">
+        <v>19</v>
+      </c>
+      <c r="B21" s="35"/>
       <c r="C21" s="19" t="s">
         <v>217</v>
       </c>
@@ -4944,8 +4902,10 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="31" t="s">
+      <c r="A22" s="52">
+        <v>20</v>
+      </c>
+      <c r="B22" s="36" t="s">
         <v>222</v>
       </c>
       <c r="C22" s="19" t="s">
@@ -4963,8 +4923,10 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="33"/>
+      <c r="A23" s="52">
+        <v>21</v>
+      </c>
+      <c r="B23" s="38"/>
       <c r="C23" s="19" t="s">
         <v>227</v>
       </c>
@@ -4980,8 +4942,10 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="36" t="s">
+      <c r="A24" s="52">
+        <v>22</v>
+      </c>
+      <c r="B24" s="39" t="s">
         <v>230</v>
       </c>
       <c r="C24" s="19" t="s">
@@ -4999,8 +4963,10 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="37"/>
+      <c r="A25" s="52">
+        <v>23</v>
+      </c>
+      <c r="B25" s="40"/>
       <c r="C25" s="19" t="s">
         <v>248</v>
       </c>
@@ -5014,8 +4980,10 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="37"/>
+      <c r="A26" s="52">
+        <v>24</v>
+      </c>
+      <c r="B26" s="40"/>
       <c r="C26" s="19" t="s">
         <v>236</v>
       </c>
@@ -5031,8 +4999,10 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="37"/>
+      <c r="A27" s="52">
+        <v>25</v>
+      </c>
+      <c r="B27" s="40"/>
       <c r="C27" s="19" t="s">
         <v>238</v>
       </c>
@@ -5048,8 +5018,10 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="37"/>
+      <c r="A28" s="52">
+        <v>26</v>
+      </c>
+      <c r="B28" s="40"/>
       <c r="C28" s="19" t="s">
         <v>242</v>
       </c>
@@ -5065,8 +5037,10 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="37"/>
+      <c r="A29" s="52">
+        <v>27</v>
+      </c>
+      <c r="B29" s="40"/>
       <c r="C29" s="19" t="s">
         <v>244</v>
       </c>
@@ -5082,8 +5056,10 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="38"/>
+      <c r="A30" s="52">
+        <v>28</v>
+      </c>
+      <c r="B30" s="41"/>
       <c r="C30" s="19" t="s">
         <v>246</v>
       </c>
@@ -5097,8 +5073,10 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="36" t="s">
+      <c r="A31" s="52">
+        <v>29</v>
+      </c>
+      <c r="B31" s="39" t="s">
         <v>247</v>
       </c>
       <c r="C31" s="19" t="s">
@@ -5116,8 +5094,10 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="37"/>
+      <c r="A32" s="52">
+        <v>30</v>
+      </c>
+      <c r="B32" s="40"/>
       <c r="C32" s="19" t="s">
         <v>248</v>
       </c>
@@ -5131,8 +5111,10 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="37"/>
+      <c r="A33" s="52">
+        <v>31</v>
+      </c>
+      <c r="B33" s="40"/>
       <c r="C33" s="19" t="s">
         <v>250</v>
       </c>
@@ -5148,8 +5130,10 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="37"/>
+      <c r="A34" s="52">
+        <v>32</v>
+      </c>
+      <c r="B34" s="40"/>
       <c r="C34" s="19" t="s">
         <v>254</v>
       </c>
@@ -5165,8 +5149,10 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="38"/>
+      <c r="A35" s="52">
+        <v>33</v>
+      </c>
+      <c r="B35" s="41"/>
       <c r="C35" s="19" t="s">
         <v>257</v>
       </c>
@@ -5180,8 +5166,10 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="36" t="s">
+      <c r="A36" s="52">
+        <v>34</v>
+      </c>
+      <c r="B36" s="39" t="s">
         <v>259</v>
       </c>
       <c r="C36" s="19" t="s">
@@ -5197,8 +5185,10 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="37"/>
+      <c r="A37" s="52">
+        <v>35</v>
+      </c>
+      <c r="B37" s="40"/>
       <c r="C37" s="19" t="s">
         <v>248</v>
       </c>
@@ -5212,8 +5202,10 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="37"/>
+      <c r="A38" s="52">
+        <v>36</v>
+      </c>
+      <c r="B38" s="40"/>
       <c r="C38" s="19" t="s">
         <v>260</v>
       </c>
@@ -5227,8 +5219,10 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="37"/>
+      <c r="A39" s="52">
+        <v>37</v>
+      </c>
+      <c r="B39" s="40"/>
       <c r="C39" s="19" t="s">
         <v>261</v>
       </c>
@@ -5242,8 +5236,10 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="37"/>
+      <c r="A40" s="52">
+        <v>38</v>
+      </c>
+      <c r="B40" s="40"/>
       <c r="C40" s="19" t="s">
         <v>262</v>
       </c>
@@ -5257,8 +5253,10 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="37"/>
+      <c r="A41" s="52">
+        <v>39</v>
+      </c>
+      <c r="B41" s="40"/>
       <c r="C41" s="19" t="s">
         <v>264</v>
       </c>
@@ -5272,8 +5270,10 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="38"/>
+      <c r="A42" s="52">
+        <v>40</v>
+      </c>
+      <c r="B42" s="41"/>
       <c r="C42" s="19" t="s">
         <v>265</v>
       </c>
@@ -5287,8 +5287,10 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="36" t="s">
+      <c r="A43" s="52">
+        <v>41</v>
+      </c>
+      <c r="B43" s="39" t="s">
         <v>26</v>
       </c>
       <c r="C43" s="19" t="s">
@@ -5304,8 +5306,10 @@
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="37"/>
+      <c r="A44" s="52">
+        <v>42</v>
+      </c>
+      <c r="B44" s="40"/>
       <c r="C44" s="19" t="s">
         <v>248</v>
       </c>
@@ -5319,8 +5323,10 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="37"/>
+      <c r="A45" s="52">
+        <v>43</v>
+      </c>
+      <c r="B45" s="40"/>
       <c r="C45" s="19" t="s">
         <v>268</v>
       </c>
@@ -5334,8 +5340,10 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="37"/>
+      <c r="A46" s="52">
+        <v>44</v>
+      </c>
+      <c r="B46" s="40"/>
       <c r="C46" s="19" t="s">
         <v>269</v>
       </c>
@@ -5349,8 +5357,10 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="38"/>
+      <c r="A47" s="52">
+        <v>45</v>
+      </c>
+      <c r="B47" s="41"/>
       <c r="C47" s="19" t="s">
         <v>270</v>
       </c>
@@ -5364,8 +5374,10 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="31" t="s">
+      <c r="A48" s="52">
+        <v>46</v>
+      </c>
+      <c r="B48" s="36" t="s">
         <v>281</v>
       </c>
       <c r="C48" s="19" t="s">
@@ -5383,8 +5395,10 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="32"/>
+      <c r="A49" s="52">
+        <v>47</v>
+      </c>
+      <c r="B49" s="37"/>
       <c r="C49" s="19" t="s">
         <v>273</v>
       </c>
@@ -5400,8 +5414,10 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="32"/>
+      <c r="A50" s="52">
+        <v>48</v>
+      </c>
+      <c r="B50" s="37"/>
       <c r="C50" s="19" t="s">
         <v>275</v>
       </c>
@@ -5417,8 +5433,10 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="32"/>
+      <c r="A51" s="52">
+        <v>49</v>
+      </c>
+      <c r="B51" s="37"/>
       <c r="C51" s="19" t="s">
         <v>277</v>
       </c>
@@ -5434,8 +5452,10 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="32"/>
+      <c r="A52" s="52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="37"/>
       <c r="C52" s="19" t="s">
         <v>279</v>
       </c>
@@ -5449,8 +5469,10 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="33"/>
+      <c r="A53" s="52">
+        <v>51</v>
+      </c>
+      <c r="B53" s="38"/>
       <c r="C53" s="19" t="s">
         <v>280</v>
       </c>
@@ -5464,8 +5486,10 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="31" t="s">
+      <c r="A54" s="52">
+        <v>52</v>
+      </c>
+      <c r="B54" s="36" t="s">
         <v>291</v>
       </c>
       <c r="C54" s="19" t="s">
@@ -5483,8 +5507,10 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="32"/>
+      <c r="A55" s="52">
+        <v>53</v>
+      </c>
+      <c r="B55" s="37"/>
       <c r="C55" s="19" t="s">
         <v>284</v>
       </c>
@@ -5500,8 +5526,10 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="32"/>
+      <c r="A56" s="52">
+        <v>54</v>
+      </c>
+      <c r="B56" s="37"/>
       <c r="C56" s="19" t="s">
         <v>286</v>
       </c>
@@ -5517,8 +5545,10 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="32"/>
+      <c r="A57" s="52">
+        <v>55</v>
+      </c>
+      <c r="B57" s="37"/>
       <c r="C57" s="19" t="s">
         <v>288</v>
       </c>
@@ -5532,8 +5562,10 @@
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="32"/>
+      <c r="A58" s="52">
+        <v>56</v>
+      </c>
+      <c r="B58" s="37"/>
       <c r="C58" s="19" t="s">
         <v>289</v>
       </c>
@@ -5547,8 +5579,10 @@
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="33"/>
+      <c r="A59" s="52">
+        <v>57</v>
+      </c>
+      <c r="B59" s="38"/>
       <c r="C59" s="19" t="s">
         <v>290</v>
       </c>
@@ -5562,8 +5596,10 @@
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="31" t="s">
+      <c r="A60" s="52">
+        <v>58</v>
+      </c>
+      <c r="B60" s="36" t="s">
         <v>292</v>
       </c>
       <c r="C60" s="19" t="s">
@@ -5581,8 +5617,10 @@
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="33"/>
+      <c r="A61" s="52">
+        <v>59</v>
+      </c>
+      <c r="B61" s="38"/>
       <c r="C61" s="19" t="s">
         <v>293</v>
       </c>
@@ -5598,8 +5636,10 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="36" t="s">
+      <c r="A62" s="52">
+        <v>60</v>
+      </c>
+      <c r="B62" s="39" t="s">
         <v>294</v>
       </c>
       <c r="C62" s="19" t="s">
@@ -5615,8 +5655,10 @@
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="37"/>
+      <c r="A63" s="52">
+        <v>61</v>
+      </c>
+      <c r="B63" s="40"/>
       <c r="C63" s="19" t="s">
         <v>248</v>
       </c>
@@ -5630,8 +5672,10 @@
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="37"/>
+      <c r="A64" s="52">
+        <v>62</v>
+      </c>
+      <c r="B64" s="40"/>
       <c r="C64" s="19" t="s">
         <v>297</v>
       </c>
@@ -5647,8 +5691,10 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="37"/>
+      <c r="A65" s="52">
+        <v>63</v>
+      </c>
+      <c r="B65" s="40"/>
       <c r="C65" s="19" t="s">
         <v>300</v>
       </c>
@@ -5664,8 +5710,10 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="37"/>
+      <c r="A66" s="52">
+        <v>64</v>
+      </c>
+      <c r="B66" s="40"/>
       <c r="C66" s="19" t="s">
         <v>305</v>
       </c>
@@ -5681,8 +5729,10 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="37"/>
+      <c r="A67" s="52">
+        <v>65</v>
+      </c>
+      <c r="B67" s="40"/>
       <c r="C67" s="19" t="s">
         <v>306</v>
       </c>
@@ -5698,8 +5748,10 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="36" t="s">
+      <c r="A68" s="52">
+        <v>66</v>
+      </c>
+      <c r="B68" s="39" t="s">
         <v>310</v>
       </c>
       <c r="C68" s="19" t="s">
@@ -5715,8 +5767,10 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="37"/>
+      <c r="A69" s="52">
+        <v>67</v>
+      </c>
+      <c r="B69" s="40"/>
       <c r="C69" s="19" t="s">
         <v>311</v>
       </c>
@@ -5730,8 +5784,10 @@
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="37"/>
+      <c r="A70" s="52">
+        <v>68</v>
+      </c>
+      <c r="B70" s="40"/>
       <c r="C70" s="19" t="s">
         <v>314</v>
       </c>
@@ -5747,8 +5803,10 @@
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="37"/>
+      <c r="A71" s="52">
+        <v>69</v>
+      </c>
+      <c r="B71" s="40"/>
       <c r="C71" s="19" t="s">
         <v>316</v>
       </c>
@@ -5764,8 +5822,10 @@
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="37"/>
+      <c r="A72" s="52">
+        <v>70</v>
+      </c>
+      <c r="B72" s="40"/>
       <c r="C72" s="19" t="s">
         <v>318</v>
       </c>
@@ -5779,8 +5839,10 @@
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="37"/>
+      <c r="A73" s="52">
+        <v>71</v>
+      </c>
+      <c r="B73" s="40"/>
       <c r="C73" s="19" t="s">
         <v>319</v>
       </c>
@@ -5794,8 +5856,10 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="38"/>
+      <c r="A74" s="52">
+        <v>72</v>
+      </c>
+      <c r="B74" s="41"/>
       <c r="C74" s="19" t="s">
         <v>320</v>
       </c>
@@ -5809,8 +5873,10 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="36" t="s">
+      <c r="A75" s="52">
+        <v>73</v>
+      </c>
+      <c r="B75" s="39" t="s">
         <v>321</v>
       </c>
       <c r="C75" s="19" t="s">
@@ -5826,8 +5892,10 @@
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="37"/>
+      <c r="A76" s="52">
+        <v>74</v>
+      </c>
+      <c r="B76" s="40"/>
       <c r="C76" s="19" t="s">
         <v>248</v>
       </c>
@@ -5841,8 +5909,10 @@
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="37"/>
+      <c r="A77" s="52">
+        <v>75</v>
+      </c>
+      <c r="B77" s="40"/>
       <c r="C77" s="19" t="s">
         <v>322</v>
       </c>
@@ -5858,8 +5928,10 @@
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="37"/>
+      <c r="A78" s="52">
+        <v>76</v>
+      </c>
+      <c r="B78" s="40"/>
       <c r="C78" s="19" t="s">
         <v>323</v>
       </c>
@@ -5875,8 +5947,10 @@
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="37"/>
+      <c r="A79" s="52">
+        <v>77</v>
+      </c>
+      <c r="B79" s="40"/>
       <c r="C79" s="19" t="s">
         <v>324</v>
       </c>
@@ -5892,8 +5966,10 @@
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="38"/>
+      <c r="A80" s="52">
+        <v>78</v>
+      </c>
+      <c r="B80" s="41"/>
       <c r="C80" s="19" t="s">
         <v>330</v>
       </c>
@@ -5909,8 +5985,10 @@
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="36" t="s">
+      <c r="A81" s="52">
+        <v>79</v>
+      </c>
+      <c r="B81" s="39" t="s">
         <v>331</v>
       </c>
       <c r="C81" s="19" t="s">
@@ -5926,8 +6004,10 @@
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="37"/>
+      <c r="A82" s="52">
+        <v>80</v>
+      </c>
+      <c r="B82" s="40"/>
       <c r="C82" s="19" t="s">
         <v>248</v>
       </c>
@@ -5941,8 +6021,10 @@
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-      <c r="B83" s="37"/>
+      <c r="A83" s="52">
+        <v>81</v>
+      </c>
+      <c r="B83" s="40"/>
       <c r="C83" s="19" t="s">
         <v>268</v>
       </c>
@@ -5956,8 +6038,10 @@
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-      <c r="B84" s="37"/>
+      <c r="A84" s="52">
+        <v>82</v>
+      </c>
+      <c r="B84" s="40"/>
       <c r="C84" s="19" t="s">
         <v>269</v>
       </c>
@@ -5971,8 +6055,10 @@
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-      <c r="B85" s="37"/>
+      <c r="A85" s="52">
+        <v>83</v>
+      </c>
+      <c r="B85" s="40"/>
       <c r="C85" s="19" t="s">
         <v>306</v>
       </c>
@@ -5988,8 +6074,10 @@
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-      <c r="B86" s="38"/>
+      <c r="A86" s="52">
+        <v>84</v>
+      </c>
+      <c r="B86" s="41"/>
       <c r="C86" s="19" t="s">
         <v>308</v>
       </c>
@@ -6003,8 +6091,10 @@
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-      <c r="B87" s="36" t="s">
+      <c r="A87" s="52">
+        <v>85</v>
+      </c>
+      <c r="B87" s="39" t="s">
         <v>333</v>
       </c>
       <c r="C87" s="19" t="s">
@@ -6022,8 +6112,10 @@
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-      <c r="B88" s="37"/>
+      <c r="A88" s="52">
+        <v>86</v>
+      </c>
+      <c r="B88" s="40"/>
       <c r="C88" s="19" t="s">
         <v>336</v>
       </c>
@@ -6039,8 +6131,10 @@
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-      <c r="B89" s="37"/>
+      <c r="A89" s="52">
+        <v>87</v>
+      </c>
+      <c r="B89" s="40"/>
       <c r="C89" s="19" t="s">
         <v>338</v>
       </c>
@@ -6056,8 +6150,10 @@
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-      <c r="B90" s="37"/>
+      <c r="A90" s="52">
+        <v>88</v>
+      </c>
+      <c r="B90" s="40"/>
       <c r="C90" s="19" t="s">
         <v>340</v>
       </c>
@@ -6073,8 +6169,10 @@
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="B91" s="37"/>
+      <c r="A91" s="52">
+        <v>89</v>
+      </c>
+      <c r="B91" s="40"/>
       <c r="C91" s="19" t="s">
         <v>342</v>
       </c>
@@ -6088,8 +6186,10 @@
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-      <c r="B92" s="38"/>
+      <c r="A92" s="52">
+        <v>90</v>
+      </c>
+      <c r="B92" s="41"/>
       <c r="C92" s="19" t="s">
         <v>343</v>
       </c>
@@ -6103,8 +6203,10 @@
       <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-      <c r="B93" s="36" t="s">
+      <c r="A93" s="52">
+        <v>91</v>
+      </c>
+      <c r="B93" s="39" t="s">
         <v>344</v>
       </c>
       <c r="C93" s="19" t="s">
@@ -6122,8 +6224,10 @@
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-      <c r="B94" s="37"/>
+      <c r="A94" s="52">
+        <v>92</v>
+      </c>
+      <c r="B94" s="40"/>
       <c r="C94" s="19" t="s">
         <v>347</v>
       </c>
@@ -6139,8 +6243,10 @@
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-      <c r="B95" s="37"/>
+      <c r="A95" s="52">
+        <v>93</v>
+      </c>
+      <c r="B95" s="40"/>
       <c r="C95" s="19" t="s">
         <v>349</v>
       </c>
@@ -6156,8 +6262,10 @@
       <c r="G95" s="1"/>
     </row>
     <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-      <c r="B96" s="37"/>
+      <c r="A96" s="52">
+        <v>94</v>
+      </c>
+      <c r="B96" s="40"/>
       <c r="C96" s="19" t="s">
         <v>351</v>
       </c>
@@ -6171,8 +6279,10 @@
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-      <c r="B97" s="37"/>
+      <c r="A97" s="52">
+        <v>95</v>
+      </c>
+      <c r="B97" s="40"/>
       <c r="C97" s="19" t="s">
         <v>352</v>
       </c>
@@ -6186,8 +6296,10 @@
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-      <c r="B98" s="38"/>
+      <c r="A98" s="52">
+        <v>96</v>
+      </c>
+      <c r="B98" s="41"/>
       <c r="C98" s="19" t="s">
         <v>353</v>
       </c>
@@ -6201,8 +6313,10 @@
       <c r="G98" s="1"/>
     </row>
     <row r="99" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-      <c r="B99" s="31" t="s">
+      <c r="A99" s="52">
+        <v>97</v>
+      </c>
+      <c r="B99" s="36" t="s">
         <v>354</v>
       </c>
       <c r="C99" s="19" t="s">
@@ -6220,8 +6334,10 @@
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="B100" s="33"/>
+      <c r="A100" s="52">
+        <v>98</v>
+      </c>
+      <c r="B100" s="38"/>
       <c r="C100" s="19" t="s">
         <v>356</v>
       </c>
@@ -6237,8 +6353,10 @@
       <c r="G100" s="1"/>
     </row>
     <row r="101" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-      <c r="B101" s="36" t="s">
+      <c r="A101" s="52">
+        <v>99</v>
+      </c>
+      <c r="B101" s="39" t="s">
         <v>358</v>
       </c>
       <c r="C101" s="19" t="s">
@@ -6254,8 +6372,10 @@
       <c r="G101" s="1"/>
     </row>
     <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-      <c r="B102" s="37"/>
+      <c r="A102" s="52">
+        <v>100</v>
+      </c>
+      <c r="B102" s="40"/>
       <c r="C102" s="19" t="s">
         <v>248</v>
       </c>
@@ -6269,8 +6389,10 @@
       <c r="G102" s="1"/>
     </row>
     <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-      <c r="B103" s="37"/>
+      <c r="A103" s="52">
+        <v>101</v>
+      </c>
+      <c r="B103" s="40"/>
       <c r="C103" s="19" t="s">
         <v>268</v>
       </c>
@@ -6286,8 +6408,10 @@
       <c r="G103" s="1"/>
     </row>
     <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-      <c r="B104" s="37"/>
+      <c r="A104" s="52">
+        <v>102</v>
+      </c>
+      <c r="B104" s="40"/>
       <c r="C104" s="19" t="s">
         <v>269</v>
       </c>
@@ -6301,8 +6425,10 @@
       <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-      <c r="B105" s="37"/>
+      <c r="A105" s="52">
+        <v>103</v>
+      </c>
+      <c r="B105" s="40"/>
       <c r="C105" s="19" t="s">
         <v>360</v>
       </c>
@@ -6318,8 +6444,10 @@
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-      <c r="B106" s="38"/>
+      <c r="A106" s="52">
+        <v>104</v>
+      </c>
+      <c r="B106" s="41"/>
       <c r="C106" s="19" t="s">
         <v>308</v>
       </c>
@@ -6334,14 +6462,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="B101:B106"/>
-    <mergeCell ref="B62:B67"/>
-    <mergeCell ref="B68:B74"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="B81:B86"/>
-    <mergeCell ref="B87:B92"/>
-    <mergeCell ref="B93:B98"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B60:B61"/>
     <mergeCell ref="B10:B15"/>
@@ -6354,13 +6474,21 @@
     <mergeCell ref="B48:B53"/>
     <mergeCell ref="B54:B59"/>
     <mergeCell ref="B5:B9"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B101:B106"/>
+    <mergeCell ref="B62:B67"/>
+    <mergeCell ref="B68:B74"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="B87:B92"/>
+    <mergeCell ref="B93:B98"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F3:F106">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6377,13 +6505,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABE84CE-3238-47F4-B2BE-1BE9A73A5DA5}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="54" customWidth="1"/>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="40.140625" customWidth="1"/>
     <col min="4" max="4" width="43.85546875" customWidth="1"/>
@@ -6393,7 +6521,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="52" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -6416,7 +6544,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="53" t="s">
         <v>407</v>
       </c>
       <c r="B2" s="17"/>
@@ -6427,7 +6555,9 @@
       <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="52">
+        <v>1</v>
+      </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>390</v>
@@ -6444,7 +6574,9 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="52">
+        <v>2</v>
+      </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>387</v>
@@ -6459,8 +6591,10 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="39" t="s">
+      <c r="A5" s="52">
+        <v>3</v>
+      </c>
+      <c r="B5" s="44" t="s">
         <v>389</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -6476,8 +6610,10 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="52">
+        <v>4</v>
+      </c>
+      <c r="B6" s="30"/>
       <c r="C6" s="19" t="s">
         <v>394</v>
       </c>
@@ -6491,8 +6627,10 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="39" t="s">
+      <c r="A7" s="52">
+        <v>5</v>
+      </c>
+      <c r="B7" s="44" t="s">
         <v>230</v>
       </c>
       <c r="C7" s="19" t="s">
@@ -6508,8 +6646,10 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="40"/>
+      <c r="A8" s="52">
+        <v>6</v>
+      </c>
+      <c r="B8" s="45"/>
       <c r="C8" s="19" t="s">
         <v>396</v>
       </c>
@@ -6523,8 +6663,10 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="40"/>
+      <c r="A9" s="52">
+        <v>7</v>
+      </c>
+      <c r="B9" s="45"/>
       <c r="C9" s="19" t="s">
         <v>404</v>
       </c>
@@ -6538,8 +6680,10 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="40"/>
+      <c r="A10" s="52">
+        <v>8</v>
+      </c>
+      <c r="B10" s="45"/>
       <c r="C10" s="19" t="s">
         <v>405</v>
       </c>
@@ -6555,8 +6699,10 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="40"/>
+      <c r="A11" s="52">
+        <v>9</v>
+      </c>
+      <c r="B11" s="45"/>
       <c r="C11" s="19" t="s">
         <v>399</v>
       </c>
@@ -6572,8 +6718,10 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="28"/>
+      <c r="A12" s="52">
+        <v>10</v>
+      </c>
+      <c r="B12" s="30"/>
       <c r="C12" s="19" t="s">
         <v>402</v>
       </c>
@@ -6594,10 +6742,10 @@
     <mergeCell ref="B7:B12"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F12">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6614,12 +6762,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81253210-265C-42F0-895A-D09BDA46BEB6}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" style="54"/>
     <col min="2" max="2" width="27.140625" customWidth="1"/>
     <col min="3" max="3" width="28.85546875" style="16" customWidth="1"/>
     <col min="4" max="4" width="33.140625" style="16" customWidth="1"/>
@@ -6629,7 +6778,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="52" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -6652,7 +6801,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="53" t="s">
         <v>408</v>
       </c>
       <c r="B2" s="17"/>
@@ -6663,7 +6812,9 @@
       <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="52">
+        <v>1</v>
+      </c>
       <c r="B3" s="1"/>
       <c r="C3" s="18" t="s">
         <v>10</v>
@@ -6680,8 +6831,10 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="41" t="s">
+      <c r="A4" s="52">
+        <v>2</v>
+      </c>
+      <c r="B4" s="46" t="s">
         <v>225</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -6699,8 +6852,10 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="41"/>
+      <c r="A5" s="52">
+        <v>3</v>
+      </c>
+      <c r="B5" s="46"/>
       <c r="C5" s="7" t="s">
         <v>206</v>
       </c>
@@ -6716,8 +6871,10 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="41"/>
+      <c r="A6" s="52">
+        <v>4</v>
+      </c>
+      <c r="B6" s="46"/>
       <c r="C6" s="7" t="s">
         <v>203</v>
       </c>
@@ -6733,8 +6890,10 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="41"/>
+      <c r="A7" s="52">
+        <v>5</v>
+      </c>
+      <c r="B7" s="46"/>
       <c r="C7" s="7" t="s">
         <v>210</v>
       </c>
@@ -6750,8 +6909,10 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="41"/>
+      <c r="A8" s="52">
+        <v>6</v>
+      </c>
+      <c r="B8" s="46"/>
       <c r="C8" s="7" t="s">
         <v>209</v>
       </c>
@@ -6765,8 +6926,10 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="41"/>
+      <c r="A9" s="52">
+        <v>7</v>
+      </c>
+      <c r="B9" s="46"/>
       <c r="C9" s="7" t="s">
         <v>208</v>
       </c>
@@ -6780,8 +6943,10 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="41" t="s">
+      <c r="A10" s="52">
+        <v>8</v>
+      </c>
+      <c r="B10" s="46" t="s">
         <v>212</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -6799,8 +6964,10 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="41"/>
+      <c r="A11" s="52">
+        <v>9</v>
+      </c>
+      <c r="B11" s="46"/>
       <c r="C11" s="7" t="s">
         <v>226</v>
       </c>
@@ -6816,8 +6983,10 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="52">
+        <v>10</v>
+      </c>
+      <c r="B12" s="46"/>
       <c r="C12" s="7" t="s">
         <v>214</v>
       </c>
@@ -6833,8 +7002,10 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="41"/>
+      <c r="A13" s="52">
+        <v>11</v>
+      </c>
+      <c r="B13" s="46"/>
       <c r="C13" s="7" t="s">
         <v>215</v>
       </c>
@@ -6848,8 +7019,10 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="41"/>
+      <c r="A14" s="52">
+        <v>12</v>
+      </c>
+      <c r="B14" s="46"/>
       <c r="C14" s="7" t="s">
         <v>216</v>
       </c>
@@ -6863,8 +7036,10 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="41"/>
+      <c r="A15" s="52">
+        <v>13</v>
+      </c>
+      <c r="B15" s="46"/>
       <c r="C15" s="7" t="s">
         <v>217</v>
       </c>
@@ -6878,8 +7053,10 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="41" t="s">
+      <c r="A16" s="52">
+        <v>14</v>
+      </c>
+      <c r="B16" s="46" t="s">
         <v>222</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -6897,8 +7074,10 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="41"/>
+      <c r="A17" s="52">
+        <v>15</v>
+      </c>
+      <c r="B17" s="46"/>
       <c r="C17" s="7" t="s">
         <v>227</v>
       </c>
@@ -6914,8 +7093,10 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="36" t="s">
+      <c r="A18" s="52">
+        <v>16</v>
+      </c>
+      <c r="B18" s="39" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -6933,8 +7114,10 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="52">
+        <v>17</v>
+      </c>
+      <c r="B19" s="40"/>
       <c r="C19" s="7" t="s">
         <v>420</v>
       </c>
@@ -6948,8 +7131,10 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="38"/>
+      <c r="A20" s="52">
+        <v>18</v>
+      </c>
+      <c r="B20" s="41"/>
       <c r="C20" s="7" t="s">
         <v>421</v>
       </c>
@@ -6963,8 +7148,10 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="36" t="s">
+      <c r="A21" s="52">
+        <v>19</v>
+      </c>
+      <c r="B21" s="39" t="s">
         <v>294</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -6982,8 +7169,10 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="37"/>
+      <c r="A22" s="52">
+        <v>20</v>
+      </c>
+      <c r="B22" s="40"/>
       <c r="C22" s="7" t="s">
         <v>434</v>
       </c>
@@ -6999,8 +7188,10 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="37"/>
+      <c r="A23" s="52">
+        <v>21</v>
+      </c>
+      <c r="B23" s="40"/>
       <c r="C23" s="7" t="s">
         <v>435</v>
       </c>
@@ -7016,8 +7207,10 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="38"/>
+      <c r="A24" s="52">
+        <v>22</v>
+      </c>
+      <c r="B24" s="41"/>
       <c r="C24" s="7" t="s">
         <v>432</v>
       </c>
@@ -7031,8 +7224,10 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="36" t="s">
+      <c r="A25" s="52">
+        <v>23</v>
+      </c>
+      <c r="B25" s="39" t="s">
         <v>358</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -7050,8 +7245,10 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="37"/>
+      <c r="A26" s="52">
+        <v>24</v>
+      </c>
+      <c r="B26" s="40"/>
       <c r="C26" s="7" t="s">
         <v>420</v>
       </c>
@@ -7065,8 +7262,10 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="38"/>
+      <c r="A27" s="52">
+        <v>25</v>
+      </c>
+      <c r="B27" s="41"/>
       <c r="C27" s="7" t="s">
         <v>421</v>
       </c>
@@ -7090,10 +7289,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F3:F27">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7108,9 +7307,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1710EBAE-0931-4DBD-898A-5556E6A6922C}">
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -7162,11 +7361,11 @@
       <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
+      <c r="A3" s="31">
         <v>1</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
@@ -7182,9 +7381,9 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="6" t="s">
         <v>183</v>
       </c>
@@ -7201,7 +7400,7 @@
       <c r="A5" s="21">
         <v>2</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="29" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -7223,8 +7422,8 @@
       <c r="A6" s="21">
         <v>3</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="31" t="s">
         <v>186</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -7243,8 +7442,8 @@
       <c r="A7" s="21">
         <v>4</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="26"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="6" t="s">
         <v>12</v>
       </c>
@@ -7261,8 +7460,8 @@
       <c r="A8" s="21">
         <v>5</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="25"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
@@ -7279,10 +7478,10 @@
       <c r="A9" s="21">
         <v>6</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="31" t="s">
         <v>185</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -7295,14 +7494,14 @@
       <c r="G9" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H9" s="27"/>
+      <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>7</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="26"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
@@ -7313,14 +7512,14 @@
       <c r="G10" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H10" s="30"/>
+      <c r="H10" s="35"/>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>8</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="25"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
@@ -7337,10 +7536,10 @@
       <c r="A12" s="22">
         <v>9</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="31" t="s">
         <v>185</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -7353,14 +7552,14 @@
       <c r="G12" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H12" s="27"/>
+      <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>10</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="26"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="6" t="s">
         <v>22</v>
       </c>
@@ -7371,14 +7570,14 @@
       <c r="G13" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H13" s="28"/>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>11</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="26"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="6" t="s">
         <v>23</v>
       </c>
@@ -7395,8 +7594,8 @@
       <c r="A15" s="22">
         <v>12</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="25"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="6" t="s">
         <v>21</v>
       </c>
@@ -7413,7 +7612,7 @@
       <c r="A16" s="21">
         <v>13</v>
       </c>
-      <c r="B16" s="30"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="14" t="s">
         <v>187</v>
       </c>
@@ -7433,10 +7632,10 @@
       <c r="A17" s="21">
         <v>14</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="31" t="s">
         <v>185</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -7449,14 +7648,14 @@
       <c r="G17" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H17" s="27"/>
+      <c r="H17" s="29"/>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>15</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="26"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="6" t="s">
         <v>27</v>
       </c>
@@ -7467,14 +7666,14 @@
       <c r="G18" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H18" s="28"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>16</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="25"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="6" t="s">
         <v>28</v>
       </c>
@@ -7491,7 +7690,7 @@
       <c r="A20" s="21">
         <v>17</v>
       </c>
-      <c r="B20" s="30"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="14" t="s">
         <v>364</v>
       </c>
@@ -7511,10 +7710,10 @@
       <c r="A21" s="21">
         <v>18</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="31" t="s">
         <v>185</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -7527,14 +7726,14 @@
       <c r="G21" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H21" s="27"/>
+      <c r="H21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>19</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="26"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="6" t="s">
         <v>35</v>
       </c>
@@ -7545,14 +7744,14 @@
       <c r="G22" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H22" s="29"/>
+      <c r="H22" s="34"/>
     </row>
     <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <v>20</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="26"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="6" t="s">
         <v>36</v>
       </c>
@@ -7563,14 +7762,14 @@
       <c r="G23" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H23" s="29"/>
+      <c r="H23" s="34"/>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>21</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="25"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="6" t="s">
         <v>33</v>
       </c>
@@ -7581,13 +7780,13 @@
       <c r="G24" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H24" s="30"/>
+      <c r="H24" s="35"/>
     </row>
     <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>22</v>
       </c>
-      <c r="B25" s="29"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="20" t="s">
         <v>189</v>
       </c>
@@ -7601,13 +7800,13 @@
       <c r="G25" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H25" s="27"/>
+      <c r="H25" s="29"/>
     </row>
     <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>23</v>
       </c>
-      <c r="B26" s="30"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="15"/>
       <c r="D26" s="6" t="s">
         <v>32</v>
@@ -7619,16 +7818,16 @@
       <c r="G26" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H26" s="30"/>
+      <c r="H26" s="35"/>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>24</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="31" t="s">
         <v>185</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -7647,8 +7846,8 @@
       <c r="A28" s="21">
         <v>25</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="26"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="6" t="s">
         <v>367</v>
       </c>
@@ -7665,8 +7864,8 @@
       <c r="A29" s="21">
         <v>26</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="26"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="6" t="s">
         <v>42</v>
       </c>
@@ -7683,8 +7882,8 @@
       <c r="A30" s="21">
         <v>27</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="25"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="6" t="s">
         <v>43</v>
       </c>
@@ -7701,10 +7900,10 @@
       <c r="A31" s="21">
         <v>28</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="31" t="s">
         <v>185</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -7723,8 +7922,8 @@
       <c r="A32" s="21">
         <v>29</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="26"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="32"/>
       <c r="D32" s="6" t="s">
         <v>50</v>
       </c>
@@ -7741,8 +7940,8 @@
       <c r="A33" s="21">
         <v>30</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="25"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="6" t="s">
         <v>51</v>
       </c>
@@ -7759,10 +7958,10 @@
       <c r="A34" s="21">
         <v>31</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="31" t="s">
         <v>185</v>
       </c>
       <c r="D34" s="6" t="s">
@@ -7781,8 +7980,8 @@
       <c r="A35" s="21">
         <v>32</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="26"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="6" t="s">
         <v>54</v>
       </c>
@@ -7799,8 +7998,8 @@
       <c r="A36" s="21">
         <v>33</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="25"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="6" t="s">
         <v>56</v>
       </c>
@@ -7817,10 +8016,10 @@
       <c r="A37" s="21">
         <v>34</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="24"/>
+      <c r="C37" s="31"/>
       <c r="D37" s="6" t="s">
         <v>59</v>
       </c>
@@ -7837,8 +8036,8 @@
       <c r="A38" s="21">
         <v>35</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="26"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="6" t="s">
         <v>173</v>
       </c>
@@ -7855,8 +8054,8 @@
       <c r="A39" s="21">
         <v>36</v>
       </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="26"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="32"/>
       <c r="D39" s="6" t="s">
         <v>199</v>
       </c>
@@ -7873,8 +8072,8 @@
       <c r="A40" s="21">
         <v>37</v>
       </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="26"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="32"/>
       <c r="D40" s="6" t="s">
         <v>62</v>
       </c>
@@ -7891,8 +8090,8 @@
       <c r="A41" s="21">
         <v>38</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="26"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="32"/>
       <c r="D41" s="6" t="s">
         <v>63</v>
       </c>
@@ -7909,8 +8108,8 @@
       <c r="A42" s="21">
         <v>39</v>
       </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="26"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="32"/>
       <c r="D42" s="6" t="s">
         <v>66</v>
       </c>
@@ -7927,8 +8126,8 @@
       <c r="A43" s="21">
         <v>40</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="26"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="32"/>
       <c r="D43" s="6" t="s">
         <v>67</v>
       </c>
@@ -7945,8 +8144,8 @@
       <c r="A44" s="21">
         <v>41</v>
       </c>
-      <c r="B44" s="29"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="32"/>
       <c r="D44" s="6" t="s">
         <v>174</v>
       </c>
@@ -7963,8 +8162,8 @@
       <c r="A45" s="21">
         <v>42</v>
       </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="26"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="32"/>
       <c r="D45" s="6" t="s">
         <v>175</v>
       </c>
@@ -7981,8 +8180,8 @@
       <c r="A46" s="21">
         <v>43</v>
       </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="25"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="33"/>
       <c r="D46" s="6" t="s">
         <v>368</v>
       </c>
@@ -7999,10 +8198,10 @@
       <c r="A47" s="21">
         <v>44</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C47" s="42"/>
+      <c r="C47" s="49"/>
       <c r="D47" s="6" t="s">
         <v>74</v>
       </c>
@@ -8019,8 +8218,8 @@
       <c r="A48" s="21">
         <v>45</v>
       </c>
-      <c r="B48" s="32"/>
-      <c r="C48" s="43"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="50"/>
       <c r="D48" s="6" t="s">
         <v>75</v>
       </c>
@@ -8039,8 +8238,8 @@
       <c r="A49" s="21">
         <v>46</v>
       </c>
-      <c r="B49" s="32"/>
-      <c r="C49" s="43"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="50"/>
       <c r="D49" s="6" t="s">
         <v>77</v>
       </c>
@@ -8057,8 +8256,8 @@
       <c r="A50" s="21">
         <v>47</v>
       </c>
-      <c r="B50" s="32"/>
-      <c r="C50" s="43"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="50"/>
       <c r="D50" s="6" t="s">
         <v>151</v>
       </c>
@@ -8075,8 +8274,8 @@
       <c r="A51" s="21">
         <v>48</v>
       </c>
-      <c r="B51" s="32"/>
-      <c r="C51" s="43"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="50"/>
       <c r="D51" s="6" t="s">
         <v>152</v>
       </c>
@@ -8093,8 +8292,8 @@
       <c r="A52" s="21">
         <v>49</v>
       </c>
-      <c r="B52" s="32"/>
-      <c r="C52" s="43"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="50"/>
       <c r="D52" s="6" t="s">
         <v>141</v>
       </c>
@@ -8113,8 +8312,8 @@
       <c r="A53" s="21">
         <v>50</v>
       </c>
-      <c r="B53" s="32"/>
-      <c r="C53" s="43"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="50"/>
       <c r="D53" s="6" t="s">
         <v>143</v>
       </c>
@@ -8133,8 +8332,8 @@
       <c r="A54" s="21">
         <v>51</v>
       </c>
-      <c r="B54" s="33"/>
-      <c r="C54" s="44"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="51"/>
       <c r="D54" s="6" t="s">
         <v>177</v>
       </c>
@@ -8151,10 +8350,10 @@
       <c r="A55" s="21">
         <v>52</v>
       </c>
-      <c r="B55" s="41" t="s">
+      <c r="B55" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="C55" s="53"/>
+      <c r="C55" s="28"/>
       <c r="D55" s="6" t="s">
         <v>148</v>
       </c>
@@ -8173,8 +8372,8 @@
       <c r="A56" s="21">
         <v>53</v>
       </c>
-      <c r="B56" s="41"/>
-      <c r="C56" s="53"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="28"/>
       <c r="D56" s="6" t="s">
         <v>153</v>
       </c>
@@ -8191,8 +8390,8 @@
       <c r="A57" s="21">
         <v>54</v>
       </c>
-      <c r="B57" s="41"/>
-      <c r="C57" s="53"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="28"/>
       <c r="D57" s="6" t="s">
         <v>149</v>
       </c>
@@ -8209,8 +8408,8 @@
       <c r="A58" s="21">
         <v>55</v>
       </c>
-      <c r="B58" s="41"/>
-      <c r="C58" s="53"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="28"/>
       <c r="D58" s="6" t="s">
         <v>156</v>
       </c>
@@ -8227,8 +8426,8 @@
       <c r="A59" s="21">
         <v>56</v>
       </c>
-      <c r="B59" s="41"/>
-      <c r="C59" s="53"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="28"/>
       <c r="D59" s="6" t="s">
         <v>157</v>
       </c>
@@ -8247,8 +8446,8 @@
       <c r="A60" s="21">
         <v>57</v>
       </c>
-      <c r="B60" s="41"/>
-      <c r="C60" s="53"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="28"/>
       <c r="D60" s="6" t="s">
         <v>159</v>
       </c>
@@ -8267,8 +8466,8 @@
       <c r="A61" s="21">
         <v>58</v>
       </c>
-      <c r="B61" s="41"/>
-      <c r="C61" s="53"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="28"/>
       <c r="D61" s="6" t="s">
         <v>163</v>
       </c>
@@ -8287,8 +8486,8 @@
       <c r="A62" s="21">
         <v>59</v>
       </c>
-      <c r="B62" s="41"/>
-      <c r="C62" s="53"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="28"/>
       <c r="D62" s="6" t="s">
         <v>166</v>
       </c>
@@ -8307,8 +8506,8 @@
       <c r="A63" s="21">
         <v>60</v>
       </c>
-      <c r="B63" s="41"/>
-      <c r="C63" s="53"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="28"/>
       <c r="D63" s="6" t="s">
         <v>171</v>
       </c>
@@ -8327,8 +8526,8 @@
       <c r="A64" s="21">
         <v>61</v>
       </c>
-      <c r="B64" s="41"/>
-      <c r="C64" s="53"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="28"/>
       <c r="D64" s="6" t="s">
         <v>170</v>
       </c>
@@ -8341,443 +8540,474 @@
       </c>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="45"/>
-      <c r="B65" s="46"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="46"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="47"/>
-    </row>
-    <row r="66" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="45"/>
-      <c r="B66" s="49"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="47"/>
-    </row>
-    <row r="67" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="45"/>
-      <c r="B67" s="49"/>
-      <c r="C67" s="50"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="46"/>
-      <c r="G67" s="46"/>
-      <c r="H67" s="47"/>
-    </row>
-    <row r="68" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="45"/>
-      <c r="B68" s="49"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="46"/>
-      <c r="E68" s="46"/>
-      <c r="F68" s="46"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="47"/>
-    </row>
-    <row r="69" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="45"/>
-      <c r="B69" s="49"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="46"/>
-      <c r="E69" s="46"/>
-      <c r="F69" s="46"/>
-      <c r="G69" s="46"/>
-      <c r="H69" s="47"/>
-    </row>
-    <row r="70" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="45"/>
-      <c r="B70" s="49"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="46"/>
-      <c r="E70" s="46"/>
-      <c r="F70" s="46"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="47"/>
-    </row>
-    <row r="71" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="45"/>
-      <c r="B71" s="49"/>
-      <c r="C71" s="51"/>
-      <c r="D71" s="46"/>
-      <c r="E71" s="46"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="47"/>
-    </row>
-    <row r="72" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="45"/>
-      <c r="B72" s="49"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="46"/>
-      <c r="E72" s="46"/>
-      <c r="F72" s="46"/>
-      <c r="G72" s="46"/>
-      <c r="H72" s="47"/>
-    </row>
-    <row r="73" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="45"/>
-      <c r="B73" s="49"/>
-      <c r="C73" s="51"/>
-      <c r="D73" s="46"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="47"/>
-    </row>
-    <row r="74" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="45"/>
-      <c r="B74" s="49"/>
-      <c r="C74" s="50"/>
-      <c r="D74" s="46"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="46"/>
-      <c r="G74" s="46"/>
-      <c r="H74" s="47"/>
-    </row>
-    <row r="75" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="45"/>
-      <c r="B75" s="49"/>
-      <c r="C75" s="50"/>
-      <c r="D75" s="46"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="46"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="47"/>
-    </row>
-    <row r="76" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="45"/>
-      <c r="B76" s="49"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="46"/>
-      <c r="E76" s="46"/>
-      <c r="F76" s="46"/>
-      <c r="G76" s="46"/>
-      <c r="H76" s="47"/>
-    </row>
-    <row r="77" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="45"/>
-      <c r="B77" s="49"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="46"/>
-      <c r="E77" s="46"/>
-      <c r="F77" s="46"/>
-      <c r="G77" s="46"/>
-      <c r="H77" s="47"/>
-    </row>
-    <row r="78" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="45"/>
-      <c r="B78" s="49"/>
-      <c r="C78" s="51"/>
-      <c r="D78" s="46"/>
-      <c r="E78" s="46"/>
-      <c r="F78" s="46"/>
-      <c r="G78" s="46"/>
-      <c r="H78" s="47"/>
-    </row>
-    <row r="79" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="45"/>
-      <c r="B79" s="49"/>
-      <c r="C79" s="51"/>
-      <c r="D79" s="46"/>
-      <c r="E79" s="46"/>
-      <c r="F79" s="46"/>
-      <c r="G79" s="46"/>
-      <c r="H79" s="47"/>
-    </row>
-    <row r="80" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="45"/>
-      <c r="B80" s="49"/>
-      <c r="C80" s="51"/>
-      <c r="D80" s="46"/>
-      <c r="E80" s="46"/>
-      <c r="F80" s="46"/>
-      <c r="G80" s="46"/>
-      <c r="H80" s="47"/>
-    </row>
-    <row r="81" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="45"/>
-      <c r="B81" s="49"/>
-      <c r="C81" s="51"/>
-      <c r="D81" s="46"/>
-      <c r="E81" s="46"/>
-      <c r="F81" s="46"/>
-      <c r="G81" s="46"/>
-      <c r="H81" s="47"/>
-    </row>
-    <row r="82" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="45"/>
-      <c r="B82" s="49"/>
-      <c r="C82" s="50"/>
-      <c r="D82" s="46"/>
-      <c r="E82" s="46"/>
-      <c r="F82" s="46"/>
-      <c r="G82" s="46"/>
-      <c r="H82" s="47"/>
-    </row>
-    <row r="83" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="45"/>
-      <c r="B83" s="49"/>
-      <c r="C83" s="50"/>
-      <c r="D83" s="46"/>
-      <c r="E83" s="46"/>
-      <c r="F83" s="46"/>
-      <c r="G83" s="46"/>
-      <c r="H83" s="47"/>
-    </row>
-    <row r="84" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="45"/>
-      <c r="B84" s="49"/>
-      <c r="C84" s="50"/>
-      <c r="D84" s="46"/>
-      <c r="E84" s="46"/>
-      <c r="F84" s="46"/>
-      <c r="G84" s="46"/>
-      <c r="H84" s="47"/>
-    </row>
-    <row r="85" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="45"/>
-      <c r="B85" s="49"/>
-      <c r="C85" s="50"/>
-      <c r="D85" s="52"/>
-      <c r="E85" s="52"/>
-      <c r="F85" s="52"/>
-      <c r="G85" s="52"/>
-    </row>
-    <row r="86" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="45"/>
-      <c r="B86" s="49"/>
-      <c r="C86" s="50"/>
-      <c r="D86" s="52"/>
-      <c r="E86" s="52"/>
-      <c r="F86" s="52"/>
-      <c r="G86" s="52"/>
-    </row>
-    <row r="87" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="45"/>
-      <c r="B87" s="49"/>
-      <c r="C87" s="50"/>
-      <c r="D87" s="52"/>
-      <c r="E87" s="52"/>
-      <c r="F87" s="52"/>
-      <c r="G87" s="52"/>
-    </row>
-    <row r="88" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="45"/>
-      <c r="B88" s="49"/>
-      <c r="C88" s="50"/>
-      <c r="D88" s="52"/>
-      <c r="E88" s="52"/>
-      <c r="F88" s="52"/>
-      <c r="G88" s="52"/>
-    </row>
-    <row r="89" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="45"/>
-      <c r="B89" s="49"/>
-      <c r="C89" s="50"/>
-      <c r="D89" s="52"/>
-      <c r="E89" s="52"/>
-      <c r="F89" s="52"/>
-      <c r="G89" s="52"/>
-    </row>
-    <row r="90" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="45"/>
-      <c r="B90" s="49"/>
-      <c r="C90" s="50"/>
-      <c r="D90" s="52"/>
-      <c r="E90" s="52"/>
-      <c r="F90" s="52"/>
-      <c r="G90" s="52"/>
-    </row>
-    <row r="91" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="45"/>
-      <c r="B91" s="49"/>
-      <c r="C91" s="50"/>
-      <c r="D91" s="52"/>
-      <c r="E91" s="52"/>
-      <c r="F91" s="52"/>
-      <c r="G91" s="52"/>
-    </row>
-    <row r="92" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="45"/>
-      <c r="B92" s="49"/>
-      <c r="C92" s="50"/>
-      <c r="D92" s="52"/>
-      <c r="E92" s="52"/>
-      <c r="F92" s="52"/>
-      <c r="G92" s="52"/>
-    </row>
-    <row r="93" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="45"/>
-      <c r="B93" s="49"/>
-      <c r="C93" s="50"/>
-      <c r="D93" s="52"/>
-      <c r="E93" s="52"/>
-      <c r="F93" s="52"/>
-      <c r="G93" s="52"/>
-    </row>
-    <row r="94" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="45"/>
-      <c r="B94" s="49"/>
-      <c r="C94" s="50"/>
-      <c r="D94" s="52"/>
-      <c r="E94" s="52"/>
-      <c r="F94" s="52"/>
-      <c r="G94" s="52"/>
-    </row>
-    <row r="95" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="45"/>
-      <c r="B95" s="49"/>
-      <c r="C95" s="50"/>
-      <c r="D95" s="52"/>
-      <c r="E95" s="52"/>
-      <c r="F95" s="52"/>
-      <c r="G95" s="52"/>
-    </row>
-    <row r="96" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="45"/>
-      <c r="B96" s="49"/>
-      <c r="C96" s="50"/>
-      <c r="D96" s="52"/>
-      <c r="E96" s="52"/>
-      <c r="F96" s="52"/>
-      <c r="G96" s="52"/>
-    </row>
-    <row r="97" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="45"/>
-      <c r="B97" s="49"/>
-      <c r="C97" s="50"/>
-      <c r="D97" s="52"/>
-      <c r="E97" s="52"/>
-      <c r="F97" s="52"/>
-      <c r="G97" s="52"/>
-    </row>
-    <row r="98" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="45"/>
-      <c r="B98" s="49"/>
-      <c r="C98" s="50"/>
-      <c r="D98" s="52"/>
-      <c r="E98" s="52"/>
-      <c r="F98" s="52"/>
-      <c r="G98" s="52"/>
-    </row>
-    <row r="99" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="45"/>
-      <c r="B99" s="49"/>
-      <c r="C99" s="50"/>
-      <c r="D99" s="52"/>
-      <c r="E99" s="52"/>
-      <c r="F99" s="52"/>
-      <c r="G99" s="52"/>
-    </row>
-    <row r="100" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="45"/>
-      <c r="B100" s="49"/>
-      <c r="C100" s="50"/>
-      <c r="D100" s="52"/>
-      <c r="E100" s="52"/>
-      <c r="F100" s="52"/>
-      <c r="G100" s="52"/>
-    </row>
-    <row r="101" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="45"/>
-      <c r="B101" s="49"/>
-      <c r="C101" s="50"/>
-      <c r="D101" s="52"/>
-      <c r="E101" s="52"/>
-      <c r="F101" s="52"/>
-      <c r="G101" s="52"/>
-    </row>
-    <row r="102" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="45"/>
-      <c r="B102" s="49"/>
-      <c r="C102" s="50"/>
-      <c r="D102" s="52"/>
-      <c r="E102" s="52"/>
-      <c r="F102" s="52"/>
-      <c r="G102" s="52"/>
-    </row>
-    <row r="103" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="45"/>
-      <c r="B103" s="49"/>
-      <c r="C103" s="50"/>
-      <c r="D103" s="52"/>
-      <c r="E103" s="52"/>
-      <c r="F103" s="52"/>
-      <c r="G103" s="52"/>
-    </row>
-    <row r="104" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="45"/>
-      <c r="B104" s="49"/>
-      <c r="C104" s="50"/>
-      <c r="D104" s="52"/>
-      <c r="E104" s="52"/>
-      <c r="F104" s="52"/>
-      <c r="G104" s="52"/>
-    </row>
-    <row r="105" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="45"/>
-      <c r="B105" s="49"/>
-      <c r="C105" s="50"/>
-      <c r="D105" s="52"/>
-      <c r="E105" s="52"/>
-      <c r="F105" s="52"/>
-      <c r="G105" s="52"/>
-    </row>
-    <row r="106" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="45"/>
-      <c r="B106" s="49"/>
-      <c r="C106" s="50"/>
-      <c r="D106" s="52"/>
-      <c r="E106" s="52"/>
-      <c r="F106" s="52"/>
-      <c r="G106" s="52"/>
-    </row>
-    <row r="107" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="45"/>
-      <c r="B107" s="49"/>
-      <c r="C107" s="50"/>
-      <c r="D107" s="52"/>
-      <c r="E107" s="52"/>
-      <c r="F107" s="52"/>
-      <c r="G107" s="52"/>
-    </row>
-    <row r="108" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="45"/>
-      <c r="B108" s="49"/>
-      <c r="C108" s="50"/>
-      <c r="D108" s="52"/>
-      <c r="E108" s="52"/>
-      <c r="F108" s="52"/>
-      <c r="G108" s="52"/>
-    </row>
-    <row r="109" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="45"/>
-      <c r="B109" s="49"/>
-      <c r="C109" s="50"/>
-      <c r="D109" s="52"/>
-      <c r="E109" s="52"/>
-      <c r="F109" s="52"/>
-      <c r="G109" s="52"/>
-    </row>
-    <row r="110" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="45"/>
-      <c r="B110" s="49"/>
-      <c r="C110" s="50"/>
-      <c r="D110" s="52"/>
-      <c r="E110" s="52"/>
-      <c r="F110" s="52"/>
-      <c r="G110" s="52"/>
-    </row>
-    <row r="111" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="24"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="26"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="24"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="26"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="24"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="26"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="24"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="26"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="24"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="26"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="24"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="26"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="24"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="26"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="24"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="26"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="24"/>
+      <c r="B73" s="48"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="26"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="24"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="26"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="24"/>
+      <c r="B75" s="48"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="26"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="24"/>
+      <c r="B76" s="48"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="26"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="24"/>
+      <c r="B77" s="48"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="26"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="24"/>
+      <c r="B78" s="48"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="26"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="24"/>
+      <c r="B79" s="48"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="26"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="24"/>
+      <c r="B80" s="48"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="26"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="24"/>
+      <c r="B81" s="48"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="26"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="24"/>
+      <c r="B82" s="48"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="26"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="24"/>
+      <c r="B83" s="48"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="26"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="24"/>
+      <c r="B84" s="48"/>
+      <c r="C84" s="47"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="26"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="24"/>
+      <c r="B85" s="48"/>
+      <c r="C85" s="47"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="24"/>
+      <c r="B86" s="48"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="24"/>
+      <c r="B87" s="48"/>
+      <c r="C87" s="47"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="24"/>
+      <c r="B88" s="48"/>
+      <c r="C88" s="47"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="24"/>
+      <c r="B89" s="48"/>
+      <c r="C89" s="47"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="24"/>
+      <c r="B90" s="48"/>
+      <c r="C90" s="47"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="24"/>
+      <c r="B91" s="48"/>
+      <c r="C91" s="47"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="24"/>
+      <c r="B92" s="48"/>
+      <c r="C92" s="47"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="24"/>
+      <c r="B93" s="48"/>
+      <c r="C93" s="47"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="24"/>
+      <c r="B94" s="48"/>
+      <c r="C94" s="47"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="24"/>
+      <c r="B95" s="48"/>
+      <c r="C95" s="47"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="24"/>
+      <c r="B96" s="48"/>
+      <c r="C96" s="47"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="24"/>
+      <c r="B97" s="48"/>
+      <c r="C97" s="47"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="24"/>
+      <c r="B98" s="48"/>
+      <c r="C98" s="47"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="24"/>
+      <c r="B99" s="48"/>
+      <c r="C99" s="47"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="24"/>
+      <c r="B100" s="48"/>
+      <c r="C100" s="47"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="24"/>
+      <c r="B101" s="48"/>
+      <c r="C101" s="47"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="24"/>
+      <c r="B102" s="48"/>
+      <c r="C102" s="47"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="24"/>
+      <c r="B103" s="48"/>
+      <c r="C103" s="47"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="24"/>
+      <c r="B104" s="48"/>
+      <c r="C104" s="47"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="24"/>
+      <c r="B105" s="48"/>
+      <c r="C105" s="47"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="24"/>
+      <c r="B106" s="48"/>
+      <c r="C106" s="47"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="24"/>
+      <c r="B107" s="48"/>
+      <c r="C107" s="47"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="24"/>
+      <c r="B108" s="48"/>
+      <c r="C108" s="47"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="24"/>
+      <c r="B109" s="48"/>
+      <c r="C109" s="47"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="24"/>
+      <c r="B110" s="48"/>
+      <c r="C110" s="47"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C89:C93"/>
+    <mergeCell ref="B55:B64"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B46"/>
+    <mergeCell ref="B47:B54"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C46"/>
+    <mergeCell ref="C47:C54"/>
     <mergeCell ref="C86:C88"/>
     <mergeCell ref="C94:C98"/>
     <mergeCell ref="C106:C110"/>
@@ -8794,44 +9024,12 @@
     <mergeCell ref="C99:C102"/>
     <mergeCell ref="C103:C105"/>
     <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C89:C93"/>
-    <mergeCell ref="B55:B64"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B46"/>
-    <mergeCell ref="B47:B54"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C46"/>
-    <mergeCell ref="C47:C54"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C6:C8"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G64">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",G3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",G3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8849,11 +9047,12 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" style="54"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="33.42578125" customWidth="1"/>
     <col min="4" max="4" width="32.28515625" customWidth="1"/>
@@ -8863,7 +9062,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="52" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -8886,7 +9085,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="53" t="s">
         <v>441</v>
       </c>
       <c r="B2" s="17"/>
@@ -8897,7 +9096,7 @@
       <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
       <c r="B3" s="3"/>
@@ -8916,7 +9115,7 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="52">
         <v>2</v>
       </c>
       <c r="B4" s="3"/>
@@ -8935,20 +9134,12 @@
       <c r="G4" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Fail">
+  <conditionalFormatting sqref="F3:F4">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",F3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
